--- a/output/reporthouronfcst.xlsx
+++ b/output/reporthouronfcst.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,50 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>Attesa</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Attesa</t>
+          <t>Risposte Eff.</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Risposte Eff.</t>
+          <t>Offerte</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Offerte</t>
+          <t>Abb sup. 14</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Abb sup. 14</t>
+          <t>Abb inf. 14</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Abb inf. 14</t>
+          <t>Short Call min 10</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Short Call min 10</t>
+          <t>Cleared</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Cleared</t>
+          <t>10/03/2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>10/03/2023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Delta_Offerto</t>
         </is>
@@ -497,34 +492,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>855</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="D2" t="n">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="E2" t="n">
-        <v>316</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>318.5</v>
       </c>
       <c r="J2" t="n">
-        <v>200.2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>57.84215784215785</v>
+        <v>4.866562009419151</v>
       </c>
     </row>
     <row r="3">
@@ -534,34 +526,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>851</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="D3" t="n">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E3" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2</v>
       </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="J3" t="n">
-        <v>147</v>
-      </c>
-      <c r="K3" t="n">
-        <v>12.9251700680272</v>
+        <v>-24.75728155339806</v>
       </c>
     </row>
     <row r="4">
@@ -571,16 +560,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>762</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -592,13 +581,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
@@ -608,34 +594,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>852</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="D5" t="n">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="E5" t="n">
-        <v>170</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="J5" t="n">
-        <v>74</v>
-      </c>
-      <c r="K5" t="n">
-        <v>129.7297297297297</v>
+        <v>46.22641509433962</v>
       </c>
     </row>
     <row r="6">
@@ -645,16 +628,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>765</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -666,13 +649,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J6" t="n">
-        <v>33</v>
-      </c>
-      <c r="K6" t="n">
-        <v>-75.75757575757575</v>
+        <v>-36.8421052631579</v>
       </c>
     </row>
     <row r="7">
@@ -682,34 +662,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2189</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="J7" t="n">
-        <v>56</v>
-      </c>
-      <c r="K7" t="n">
-        <v>-71.42857142857143</v>
+        <v>-69.51219512195121</v>
       </c>
     </row>
     <row r="8">
@@ -719,34 +696,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5207</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>159</v>
       </c>
       <c r="D8" t="n">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="E8" t="n">
-        <v>122</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J8" t="n">
-        <v>23</v>
-      </c>
-      <c r="K8" t="n">
-        <v>430.4347826086956</v>
+        <v>613.0434782608695</v>
       </c>
     </row>
     <row r="9">
@@ -756,34 +730,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3092</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D9" t="n">
         <v>17</v>
       </c>
       <c r="E9" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="J9" t="n">
-        <v>58</v>
-      </c>
-      <c r="K9" t="n">
-        <v>-68.96551724137932</v>
+        <v>-70.68965517241379</v>
       </c>
     </row>
     <row r="10">
@@ -793,34 +764,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2072</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="D10" t="n">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c r="E10" t="n">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="J10" t="n">
-        <v>270</v>
-      </c>
-      <c r="K10" t="n">
-        <v>-66.66666666666667</v>
+        <v>-53.03430079155673</v>
       </c>
     </row>
     <row r="11">
@@ -830,34 +798,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>845</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="D11" t="n">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="E11" t="n">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="J11" t="n">
-        <v>175</v>
-      </c>
-      <c r="K11" t="n">
-        <v>-35.42857142857143</v>
+        <v>-39.42307692307693</v>
       </c>
     </row>
     <row r="12">
@@ -867,34 +832,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2347</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>18</v>
+        <v>217</v>
       </c>
       <c r="D12" t="n">
-        <v>132</v>
+        <v>270</v>
       </c>
       <c r="E12" t="n">
-        <v>259</v>
+        <v>11</v>
       </c>
       <c r="F12" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="I12" t="n">
-        <v>71</v>
+        <v>395.2</v>
       </c>
       <c r="J12" t="n">
-        <v>258.7</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.1159644375724911</v>
+        <v>-31.68016194331984</v>
       </c>
     </row>
     <row r="13">
@@ -904,19 +866,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>703</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -925,13 +887,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="J13" t="n">
-        <v>220</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-97.72727272727273</v>
+        <v>-96.35761589403974</v>
       </c>
     </row>
     <row r="14">
@@ -941,34 +900,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>847</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>13</v>
+        <v>298</v>
       </c>
       <c r="D14" t="n">
-        <v>134</v>
+        <v>314</v>
       </c>
       <c r="E14" t="n">
-        <v>203</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I14" t="n">
-        <v>17</v>
+        <v>495</v>
       </c>
       <c r="J14" t="n">
-        <v>353</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-42.49291784702549</v>
+        <v>-36.56565656565657</v>
       </c>
     </row>
     <row r="15">
@@ -978,34 +934,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1614</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="D15" t="n">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="E15" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="J15" t="n">
-        <v>92</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-23.91304347826086</v>
+        <v>-30.70866141732284</v>
       </c>
     </row>
     <row r="16">
@@ -1015,34 +968,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1739</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D16" t="n">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="E16" t="n">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="F16" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="J16" t="n">
-        <v>134</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-30.59701492537313</v>
+        <v>-24.6268656716418</v>
       </c>
     </row>
     <row r="17">
@@ -1052,34 +1002,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2793</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D17" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E17" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="J17" t="n">
-        <v>50</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-64</v>
+        <v>-57.14285714285714</v>
       </c>
     </row>
     <row r="18">
@@ -1089,19 +1036,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>681</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1110,15 +1057,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
       </c>
     </row>
     <row r="19">
@@ -1128,16 +1070,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>717</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1149,13 +1091,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-16.66666666666666</v>
+        <v>-22.22222222222222</v>
       </c>
     </row>
     <row r="20">
@@ -1165,16 +1104,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2246</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E20" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1186,13 +1125,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J20" t="n">
-        <v>28</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-57.14285714285714</v>
+        <v>-50</v>
       </c>
     </row>
   </sheetData>

--- a/output/reporthouronfcst.xlsx
+++ b/output/reporthouronfcst.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,50 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>Attesa</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Attesa</t>
+          <t>Risposte Eff.</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Risposte Eff.</t>
+          <t>Offerte</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Offerte</t>
+          <t>Abb sup. 14</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Abb sup. 14</t>
+          <t>Abb inf. 14</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Abb inf. 14</t>
+          <t>Short Call min 10</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Short Call min 10</t>
+          <t>Cleared</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Cleared</t>
+          <t>10/03/2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>10/03/2023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Delta_Offerto</t>
         </is>
@@ -497,34 +492,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>855</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>626</v>
       </c>
       <c r="D2" t="n">
-        <v>313</v>
+        <v>633</v>
       </c>
       <c r="E2" t="n">
-        <v>316</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>496.6</v>
       </c>
       <c r="J2" t="n">
-        <v>200.2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>57.84215784215785</v>
+        <v>27.46677406363269</v>
       </c>
     </row>
     <row r="3">
@@ -534,34 +526,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>851</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="D3" t="n">
-        <v>163</v>
+        <v>234</v>
       </c>
       <c r="E3" t="n">
-        <v>166</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="J3" t="n">
-        <v>147</v>
-      </c>
-      <c r="K3" t="n">
-        <v>12.9251700680272</v>
+        <v>-9.999999999999998</v>
       </c>
     </row>
     <row r="4">
@@ -571,16 +560,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>762</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -592,13 +581,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -608,34 +594,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>852</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="D5" t="n">
-        <v>167</v>
+        <v>254</v>
       </c>
       <c r="E5" t="n">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="J5" t="n">
-        <v>74</v>
-      </c>
-      <c r="K5" t="n">
-        <v>129.7297297297297</v>
+        <v>93.89312977099236</v>
       </c>
     </row>
     <row r="6">
@@ -645,16 +628,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>765</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -666,13 +649,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="J6" t="n">
-        <v>33</v>
-      </c>
-      <c r="K6" t="n">
-        <v>-75.75757575757575</v>
+        <v>-62.74509803921568</v>
       </c>
     </row>
     <row r="7">
@@ -682,34 +662,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2189</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E7" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>1</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="J7" t="n">
-        <v>56</v>
-      </c>
-      <c r="K7" t="n">
-        <v>-71.42857142857143</v>
+        <v>-66.98113207547169</v>
       </c>
     </row>
     <row r="8">
@@ -719,34 +696,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5207</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="D8" t="n">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="E8" t="n">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J8" t="n">
-        <v>23</v>
-      </c>
-      <c r="K8" t="n">
-        <v>430.4347826086956</v>
+        <v>682.6086956521739</v>
       </c>
     </row>
     <row r="9">
@@ -756,19 +730,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3092</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E9" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -777,13 +751,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="J9" t="n">
-        <v>58</v>
-      </c>
-      <c r="K9" t="n">
-        <v>-68.96551724137932</v>
+        <v>-39.6551724137931</v>
       </c>
     </row>
     <row r="10">
@@ -793,34 +764,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2072</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="D10" t="n">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="E10" t="n">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
         <v>6</v>
       </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="J10" t="n">
-        <v>270</v>
-      </c>
-      <c r="K10" t="n">
-        <v>-66.66666666666667</v>
+        <v>-66.04938271604939</v>
       </c>
     </row>
     <row r="11">
@@ -830,34 +798,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>845</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="D11" t="n">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="E11" t="n">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="J11" t="n">
-        <v>175</v>
-      </c>
-      <c r="K11" t="n">
-        <v>-35.42857142857143</v>
+        <v>-25.51440329218106</v>
       </c>
     </row>
     <row r="12">
@@ -867,34 +832,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2347</v>
+        <v>23</v>
       </c>
       <c r="C12" t="n">
-        <v>18</v>
+        <v>217</v>
       </c>
       <c r="D12" t="n">
-        <v>132</v>
+        <v>502</v>
       </c>
       <c r="E12" t="n">
-        <v>259</v>
+        <v>113</v>
       </c>
       <c r="F12" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>138</v>
       </c>
       <c r="I12" t="n">
-        <v>71</v>
+        <v>514.8</v>
       </c>
       <c r="J12" t="n">
-        <v>258.7</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.1159644375724911</v>
+        <v>-2.486402486402473</v>
       </c>
     </row>
     <row r="13">
@@ -904,19 +866,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>703</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
+        <v>10</v>
+      </c>
+      <c r="D13" t="n">
+        <v>13</v>
+      </c>
+      <c r="E13" t="n">
         <v>2</v>
       </c>
-      <c r="D13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" t="n">
-        <v>5</v>
-      </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -925,13 +887,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>386</v>
       </c>
       <c r="J13" t="n">
-        <v>220</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-97.72727272727273</v>
+        <v>-96.6321243523316</v>
       </c>
     </row>
     <row r="14">
@@ -941,34 +900,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>847</v>
+        <v>14</v>
       </c>
       <c r="C14" t="n">
-        <v>13</v>
+        <v>229</v>
       </c>
       <c r="D14" t="n">
-        <v>134</v>
+        <v>384</v>
       </c>
       <c r="E14" t="n">
-        <v>203</v>
+        <v>106</v>
       </c>
       <c r="F14" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="G14" t="n">
         <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="I14" t="n">
-        <v>17</v>
+        <v>607</v>
       </c>
       <c r="J14" t="n">
-        <v>353</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-42.49291784702549</v>
+        <v>-36.73805601317957</v>
       </c>
     </row>
     <row r="15">
@@ -978,19 +934,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1614</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="D15" t="n">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="E15" t="n">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -999,13 +955,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="J15" t="n">
-        <v>92</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-23.91304347826086</v>
+        <v>-26.1437908496732</v>
       </c>
     </row>
     <row r="16">
@@ -1015,33 +968,30 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1739</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D16" t="n">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E16" t="n">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="F16" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="J16" t="n">
-        <v>134</v>
-      </c>
-      <c r="K16" t="n">
         <v>-30.59701492537313</v>
       </c>
     </row>
@@ -1052,19 +1002,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2793</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D17" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E17" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1073,13 +1023,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="J17" t="n">
-        <v>50</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-64</v>
+        <v>-75.51020408163265</v>
       </c>
     </row>
     <row r="18">
@@ -1089,36 +1036,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>681</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" t="n">
         <v>1</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>2</v>
       </c>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
@@ -1128,16 +1070,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>717</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1149,13 +1091,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J19" t="n">
-        <v>6</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-16.66666666666666</v>
+        <v>-18.18181818181818</v>
       </c>
     </row>
     <row r="20">
@@ -1165,16 +1104,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2246</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D20" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E20" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1186,13 +1125,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J20" t="n">
-        <v>28</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-57.14285714285714</v>
+        <v>-34</v>
       </c>
     </row>
   </sheetData>

--- a/output/reporthouronfcst.xlsx
+++ b/output/reporthouronfcst.xlsx
@@ -492,31 +492,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>626</v>
+        <v>1.632</v>
       </c>
       <c r="D2" t="n">
-        <v>633</v>
+        <v>1.662</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>496.6</v>
+        <v>1103.7</v>
       </c>
       <c r="J2" t="n">
-        <v>27.46677406363269</v>
+        <v>-99.84941560206579</v>
       </c>
     </row>
     <row r="3">
@@ -529,28 +529,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>231</v>
+        <v>476</v>
       </c>
       <c r="D3" t="n">
-        <v>234</v>
+        <v>485</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>260</v>
+        <v>541</v>
       </c>
       <c r="J3" t="n">
-        <v>-9.999999999999998</v>
+        <v>-10.35120147874307</v>
       </c>
     </row>
     <row r="4">
@@ -563,10 +563,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -581,10 +581,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -597,16 +597,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>251</v>
+        <v>442</v>
       </c>
       <c r="D5" t="n">
-        <v>254</v>
+        <v>450</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -615,10 +615,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>131</v>
+        <v>219</v>
       </c>
       <c r="J5" t="n">
-        <v>93.89312977099236</v>
+        <v>105.4794520547945</v>
       </c>
     </row>
     <row r="6">
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D6" t="n">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="J6" t="n">
-        <v>-62.74509803921568</v>
+        <v>-26.08695652173914</v>
       </c>
     </row>
     <row r="7">
@@ -662,31 +662,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D7" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="J7" t="n">
-        <v>-66.98113207547169</v>
+        <v>-64.28571428571428</v>
       </c>
     </row>
     <row r="8">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>166</v>
+        <v>390</v>
       </c>
       <c r="D8" t="n">
-        <v>180</v>
+        <v>417</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>23</v>
       </c>
       <c r="J8" t="n">
-        <v>682.6086956521739</v>
+        <v>1713.04347826087</v>
       </c>
     </row>
     <row r="9">
@@ -730,22 +730,22 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>74</v>
+      </c>
+      <c r="D9" t="n">
+        <v>75</v>
+      </c>
+      <c r="E9" t="n">
         <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>34</v>
-      </c>
-      <c r="D9" t="n">
-        <v>35</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>58</v>
       </c>
       <c r="J9" t="n">
-        <v>-39.6551724137931</v>
+        <v>29.31034482758621</v>
       </c>
     </row>
     <row r="10">
@@ -764,31 +764,31 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>302</v>
+      </c>
+      <c r="D10" t="n">
+        <v>356</v>
+      </c>
+      <c r="E10" t="n">
+        <v>45</v>
+      </c>
+      <c r="F10" t="n">
         <v>2</v>
       </c>
-      <c r="C10" t="n">
-        <v>148</v>
-      </c>
-      <c r="D10" t="n">
-        <v>165</v>
-      </c>
-      <c r="E10" t="n">
-        <v>15</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>486</v>
+        <v>915</v>
       </c>
       <c r="J10" t="n">
-        <v>-66.04938271604939</v>
+        <v>-61.09289617486338</v>
       </c>
     </row>
     <row r="11">
@@ -801,28 +801,28 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>180</v>
+        <v>391</v>
       </c>
       <c r="D11" t="n">
-        <v>181</v>
+        <v>396</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>243</v>
+        <v>372</v>
       </c>
       <c r="J11" t="n">
-        <v>-25.51440329218106</v>
+        <v>6.451612903225801</v>
       </c>
     </row>
     <row r="12">
@@ -835,28 +835,28 @@
         <v>23</v>
       </c>
       <c r="C12" t="n">
-        <v>217</v>
+        <v>387</v>
       </c>
       <c r="D12" t="n">
-        <v>502</v>
+        <v>1129</v>
       </c>
       <c r="E12" t="n">
-        <v>113</v>
+        <v>462</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H12" t="n">
-        <v>138</v>
+        <v>239</v>
       </c>
       <c r="I12" t="n">
-        <v>514.8</v>
+        <v>1019.2</v>
       </c>
       <c r="J12" t="n">
-        <v>-2.486402486402473</v>
+        <v>10.77315541601256</v>
       </c>
     </row>
     <row r="13">
@@ -869,13 +869,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D13" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -887,10 +887,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>386</v>
+        <v>766</v>
       </c>
       <c r="J13" t="n">
-        <v>-96.6321243523316</v>
+        <v>-94.25587467362925</v>
       </c>
     </row>
     <row r="14">
@@ -900,31 +900,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>229</v>
+        <v>376</v>
       </c>
       <c r="D14" t="n">
-        <v>384</v>
+        <v>793</v>
       </c>
       <c r="E14" t="n">
-        <v>106</v>
+        <v>339</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H14" t="n">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="I14" t="n">
-        <v>607</v>
+        <v>1157</v>
       </c>
       <c r="J14" t="n">
-        <v>-36.73805601317957</v>
+        <v>-31.46067415730337</v>
       </c>
     </row>
     <row r="15">
@@ -934,31 +934,31 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>254</v>
+      </c>
+      <c r="D15" t="n">
+        <v>278</v>
+      </c>
+      <c r="E15" t="n">
+        <v>24</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="n">
-        <v>109</v>
-      </c>
-      <c r="D15" t="n">
-        <v>113</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>153</v>
+        <v>309</v>
       </c>
       <c r="J15" t="n">
-        <v>-26.1437908496732</v>
+        <v>-10.03236245954693</v>
       </c>
     </row>
     <row r="16">
@@ -1005,28 +1005,28 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="D17" t="n">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="J17" t="n">
-        <v>-75.51020408163265</v>
+        <v>-50.26178010471204</v>
       </c>
     </row>
     <row r="18">
@@ -1042,10 +1042,10 @@
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1073,10 +1073,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D19" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1091,10 +1091,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J19" t="n">
-        <v>-18.18181818181818</v>
+        <v>4.545454545454541</v>
       </c>
     </row>
     <row r="20">
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D20" t="n">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1125,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="J20" t="n">
-        <v>-34</v>
+        <v>-40.74074074074075</v>
       </c>
     </row>
   </sheetData>

--- a/output/reporthouronfcst.xlsx
+++ b/output/reporthouronfcst.xlsx
@@ -513,10 +513,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1103.7</v>
+        <v>1225.9</v>
       </c>
       <c r="J2" t="n">
-        <v>-99.84941560206579</v>
+        <v>-99.86442613590015</v>
       </c>
     </row>
     <row r="3">
@@ -547,10 +547,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>541</v>
+        <v>605</v>
       </c>
       <c r="J3" t="n">
-        <v>-10.35120147874307</v>
+        <v>-19.83471074380165</v>
       </c>
     </row>
     <row r="4">
@@ -581,10 +581,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J4" t="n">
-        <v>75</v>
+        <v>61.53846153846154</v>
       </c>
     </row>
     <row r="5">
@@ -615,10 +615,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="J5" t="n">
-        <v>105.4794520547945</v>
+        <v>91.48936170212767</v>
       </c>
     </row>
     <row r="6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="J6" t="n">
-        <v>-26.08695652173914</v>
+        <v>-35.23809523809523</v>
       </c>
     </row>
     <row r="7">
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="J7" t="n">
-        <v>-64.28571428571428</v>
+        <v>-66.98113207547169</v>
       </c>
     </row>
     <row r="8">
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>915</v>
+        <v>989</v>
       </c>
       <c r="J10" t="n">
-        <v>-61.09289617486338</v>
+        <v>-64.00404448938322</v>
       </c>
     </row>
     <row r="11">
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>372</v>
+        <v>400</v>
       </c>
       <c r="J11" t="n">
-        <v>6.451612903225801</v>
+        <v>-1.000000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -853,10 +853,10 @@
         <v>239</v>
       </c>
       <c r="I12" t="n">
-        <v>1019.2</v>
+        <v>1116.7</v>
       </c>
       <c r="J12" t="n">
-        <v>10.77315541601256</v>
+        <v>1.101459657920656</v>
       </c>
     </row>
     <row r="13">
@@ -887,10 +887,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>766</v>
+        <v>849</v>
       </c>
       <c r="J13" t="n">
-        <v>-94.25587467362925</v>
+        <v>-94.81743227326265</v>
       </c>
     </row>
     <row r="14">
@@ -921,10 +921,10 @@
         <v>58</v>
       </c>
       <c r="I14" t="n">
-        <v>1157</v>
+        <v>1280</v>
       </c>
       <c r="J14" t="n">
-        <v>-31.46067415730337</v>
+        <v>-38.046875</v>
       </c>
     </row>
     <row r="15">
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="J15" t="n">
-        <v>-10.03236245954693</v>
+        <v>-18.95043731778425</v>
       </c>
     </row>
     <row r="16">
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="J17" t="n">
-        <v>-50.26178010471204</v>
+        <v>-54.32692307692308</v>
       </c>
     </row>
     <row r="18">
@@ -1091,10 +1091,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J19" t="n">
-        <v>4.545454545454541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1125,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="J20" t="n">
-        <v>-40.74074074074075</v>
+        <v>-49.20634920634921</v>
       </c>
     </row>
   </sheetData>

--- a/output/reporthouronfcst.xlsx
+++ b/output/reporthouronfcst.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>10/03/2023</t>
+          <t>11/03/2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -495,28 +495,28 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.632</v>
+        <v>1.147</v>
       </c>
       <c r="D2" t="n">
-        <v>1.662</v>
+        <v>1.177</v>
       </c>
       <c r="E2" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2" t="n">
         <v>9</v>
       </c>
-      <c r="F2" t="n">
-        <v>20</v>
-      </c>
       <c r="G2" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1225.9</v>
+        <v>768.3</v>
       </c>
       <c r="J2" t="n">
-        <v>-99.86442613590015</v>
+        <v>-99.84680463360667</v>
       </c>
     </row>
     <row r="3">
@@ -526,31 +526,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>476</v>
+        <v>404</v>
       </c>
       <c r="D3" t="n">
-        <v>485</v>
+        <v>407</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>605</v>
+        <v>462</v>
       </c>
       <c r="J3" t="n">
-        <v>-19.83471074380165</v>
+        <v>-11.90476190476191</v>
       </c>
     </row>
     <row r="4">
@@ -563,10 +563,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -581,10 +581,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
-        <v>61.53846153846154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -597,16 +597,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>442</v>
+        <v>300</v>
       </c>
       <c r="D5" t="n">
-        <v>450</v>
+        <v>312</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -615,10 +615,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="J5" t="n">
-        <v>91.48936170212767</v>
+        <v>21.40077821011672</v>
       </c>
     </row>
     <row r="6">
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="J6" t="n">
-        <v>-35.23809523809523</v>
+        <v>19.64285714285714</v>
       </c>
     </row>
     <row r="7">
@@ -665,28 +665,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D7" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>212</v>
+        <v>109</v>
       </c>
       <c r="J7" t="n">
-        <v>-66.98113207547169</v>
+        <v>-49.54128440366973</v>
       </c>
     </row>
     <row r="8">
@@ -699,28 +699,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>390</v>
+        <v>294</v>
       </c>
       <c r="D8" t="n">
-        <v>417</v>
+        <v>295</v>
       </c>
       <c r="E8" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J8" t="n">
-        <v>1713.04347826087</v>
+        <v>1635.294117647059</v>
       </c>
     </row>
     <row r="9">
@@ -733,28 +733,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D9" t="n">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="J9" t="n">
-        <v>29.31034482758621</v>
+        <v>32.49999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -764,31 +764,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>302</v>
+        <v>200</v>
       </c>
       <c r="D10" t="n">
-        <v>356</v>
+        <v>248</v>
       </c>
       <c r="E10" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F10" t="n">
         <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>989</v>
+        <v>537</v>
       </c>
       <c r="J10" t="n">
-        <v>-64.00404448938322</v>
+        <v>-53.81750465549349</v>
       </c>
     </row>
     <row r="11">
@@ -801,28 +801,28 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>391</v>
+        <v>333</v>
       </c>
       <c r="D11" t="n">
-        <v>396</v>
+        <v>338</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
         <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>400</v>
+        <v>239</v>
       </c>
       <c r="J11" t="n">
-        <v>-1.000000000000001</v>
+        <v>41.42259414225941</v>
       </c>
     </row>
     <row r="12">
@@ -832,31 +832,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>387</v>
+        <v>285</v>
       </c>
       <c r="D12" t="n">
-        <v>1129</v>
+        <v>643</v>
       </c>
       <c r="E12" t="n">
-        <v>462</v>
+        <v>211</v>
       </c>
       <c r="F12" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H12" t="n">
-        <v>239</v>
+        <v>137</v>
       </c>
       <c r="I12" t="n">
-        <v>1116.7</v>
+        <v>676</v>
       </c>
       <c r="J12" t="n">
-        <v>1.101459657920656</v>
+        <v>-4.881656804733725</v>
       </c>
     </row>
     <row r="13">
@@ -869,16 +869,16 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E13" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -887,10 +887,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>849</v>
+        <v>722</v>
       </c>
       <c r="J13" t="n">
-        <v>-94.81743227326265</v>
+        <v>-95.98337950138504</v>
       </c>
     </row>
     <row r="14">
@@ -900,31 +900,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="D14" t="n">
-        <v>793</v>
+        <v>622</v>
       </c>
       <c r="E14" t="n">
-        <v>339</v>
+        <v>195</v>
       </c>
       <c r="F14" t="n">
         <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I14" t="n">
-        <v>1280</v>
+        <v>825</v>
       </c>
       <c r="J14" t="n">
-        <v>-38.046875</v>
+        <v>-24.60606060606061</v>
       </c>
     </row>
     <row r="15">
@@ -937,28 +937,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="D15" t="n">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="E15" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>343</v>
+        <v>256</v>
       </c>
       <c r="J15" t="n">
-        <v>-18.95043731778425</v>
+        <v>-3.515625</v>
       </c>
     </row>
     <row r="16">
@@ -971,28 +971,28 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="D16" t="n">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E16" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="J16" t="n">
-        <v>-30.59701492537313</v>
+        <v>-21.21212121212121</v>
       </c>
     </row>
     <row r="17">
@@ -1008,25 +1008,25 @@
         <v>70</v>
       </c>
       <c r="D17" t="n">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="E17" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="J17" t="n">
-        <v>-54.32692307692308</v>
+        <v>-26.92307692307693</v>
       </c>
     </row>
     <row r="18">
@@ -1039,13 +1039,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="19">
@@ -1073,10 +1073,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1091,10 +1091,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>35.71428571428572</v>
       </c>
     </row>
     <row r="20">
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D20" t="n">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1125,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="J20" t="n">
-        <v>-49.20634920634921</v>
+        <v>-63.76811594202898</v>
       </c>
     </row>
   </sheetData>

--- a/output/reporthouronfcst.xlsx
+++ b/output/reporthouronfcst.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>11/03/2023</t>
+          <t>14/03/2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -492,31 +492,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>522</v>
+      </c>
+      <c r="D2" t="n">
+        <v>523</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>1.147</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.177</v>
-      </c>
-      <c r="E2" t="n">
-        <v>17</v>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
-      </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>768.3</v>
+        <v>525.2</v>
       </c>
       <c r="J2" t="n">
-        <v>-99.84680463360667</v>
+        <v>-0.4188880426504227</v>
       </c>
     </row>
     <row r="3">
@@ -526,31 +526,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>404</v>
+        <v>212</v>
       </c>
       <c r="D3" t="n">
-        <v>407</v>
+        <v>214</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>2</v>
       </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>462</v>
+        <v>236</v>
       </c>
       <c r="J3" t="n">
-        <v>-11.90476190476191</v>
+        <v>-9.322033898305083</v>
       </c>
     </row>
     <row r="4">
@@ -563,13 +563,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -581,10 +581,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>16.66666666666667</v>
       </c>
     </row>
     <row r="5">
@@ -597,16 +597,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="D5" t="n">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="E5" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -615,10 +615,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>257</v>
+        <v>96</v>
       </c>
       <c r="J5" t="n">
-        <v>21.40077821011672</v>
+        <v>182.2916666666667</v>
       </c>
     </row>
     <row r="6">
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="J6" t="n">
-        <v>19.64285714285714</v>
+        <v>-26.31578947368422</v>
       </c>
     </row>
     <row r="7">
@@ -662,16 +662,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D7" t="n">
         <v>55</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="J7" t="n">
-        <v>-49.54128440366973</v>
+        <v>-32.92682926829268</v>
       </c>
     </row>
     <row r="8">
@@ -699,28 +699,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>294</v>
+        <v>214</v>
       </c>
       <c r="D8" t="n">
-        <v>295</v>
+        <v>227</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J8" t="n">
-        <v>1635.294117647059</v>
+        <v>548.5714285714286</v>
       </c>
     </row>
     <row r="9">
@@ -733,28 +733,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D9" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J9" t="n">
-        <v>32.49999999999999</v>
+        <v>-42.85714285714286</v>
       </c>
     </row>
     <row r="10">
@@ -764,31 +764,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="D10" t="n">
         <v>248</v>
       </c>
       <c r="E10" t="n">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>537</v>
+        <v>440</v>
       </c>
       <c r="J10" t="n">
-        <v>-53.81750465549349</v>
+        <v>-43.63636363636364</v>
       </c>
     </row>
     <row r="11">
@@ -801,28 +801,28 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>333</v>
+        <v>185</v>
       </c>
       <c r="D11" t="n">
-        <v>338</v>
+        <v>185</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>239</v>
+        <v>148</v>
       </c>
       <c r="J11" t="n">
-        <v>41.42259414225941</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
@@ -832,31 +832,31 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>338</v>
+      </c>
+      <c r="D12" t="n">
+        <v>432</v>
+      </c>
+      <c r="E12" t="n">
         <v>5</v>
       </c>
-      <c r="C12" t="n">
-        <v>285</v>
-      </c>
-      <c r="D12" t="n">
-        <v>643</v>
-      </c>
-      <c r="E12" t="n">
-        <v>211</v>
-      </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="I12" t="n">
-        <v>676</v>
+        <v>483.6</v>
       </c>
       <c r="J12" t="n">
-        <v>-4.881656804733725</v>
+        <v>-10.66997518610422</v>
       </c>
     </row>
     <row r="13">
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7</v>
+      </c>
+      <c r="D13" t="n">
+        <v>8</v>
+      </c>
+      <c r="E13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" t="n">
-        <v>20</v>
-      </c>
-      <c r="D13" t="n">
-        <v>29</v>
-      </c>
-      <c r="E13" t="n">
-        <v>7</v>
-      </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -887,10 +887,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>722</v>
+        <v>355</v>
       </c>
       <c r="J13" t="n">
-        <v>-95.98337950138504</v>
+        <v>-97.74647887323944</v>
       </c>
     </row>
     <row r="14">
@@ -900,31 +900,31 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>320</v>
+      </c>
+      <c r="D14" t="n">
+        <v>362</v>
+      </c>
+      <c r="E14" t="n">
         <v>4</v>
       </c>
-      <c r="C14" t="n">
-        <v>354</v>
-      </c>
-      <c r="D14" t="n">
-        <v>622</v>
-      </c>
-      <c r="E14" t="n">
-        <v>195</v>
-      </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I14" t="n">
-        <v>825</v>
+        <v>530</v>
       </c>
       <c r="J14" t="n">
-        <v>-24.60606060606061</v>
+        <v>-31.69811320754717</v>
       </c>
     </row>
     <row r="15">
@@ -937,16 +937,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>236</v>
+        <v>124</v>
       </c>
       <c r="D15" t="n">
-        <v>247</v>
+        <v>125</v>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>256</v>
+        <v>159</v>
       </c>
       <c r="J15" t="n">
-        <v>-3.515625</v>
+        <v>-21.38364779874213</v>
       </c>
     </row>
     <row r="16">
@@ -971,28 +971,28 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="D16" t="n">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="E16" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="J16" t="n">
-        <v>-21.21212121212121</v>
+        <v>5.645161290322576</v>
       </c>
     </row>
     <row r="17">
@@ -1005,28 +1005,28 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D17" t="n">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="J17" t="n">
-        <v>-26.92307692307693</v>
+        <v>-40.69767441860465</v>
       </c>
     </row>
     <row r="18">
@@ -1039,10 +1039,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>-100</v>
+        <v>33.33333333333333</v>
       </c>
     </row>
     <row r="19">
@@ -1073,10 +1073,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1091,10 +1091,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J19" t="n">
-        <v>35.71428571428572</v>
+        <v>-33.33333333333334</v>
       </c>
     </row>
     <row r="20">
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D20" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1125,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J20" t="n">
-        <v>-63.76811594202898</v>
+        <v>-76.27118644067797</v>
       </c>
     </row>
   </sheetData>

--- a/output/reporthouronfcst.xlsx
+++ b/output/reporthouronfcst.xlsx
@@ -495,28 +495,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>522</v>
+        <v>1.322</v>
       </c>
       <c r="D2" t="n">
-        <v>523</v>
+        <v>1.327</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>525.2</v>
+        <v>1281.8</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.4188880426504227</v>
+        <v>-99.89647370884694</v>
       </c>
     </row>
     <row r="3">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>212</v>
+        <v>404</v>
       </c>
       <c r="D3" t="n">
-        <v>214</v>
+        <v>406</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -541,16 +541,16 @@
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>236</v>
+        <v>523</v>
       </c>
       <c r="J3" t="n">
-        <v>-9.322033898305083</v>
+        <v>-22.37093690248566</v>
       </c>
     </row>
     <row r="4">
@@ -563,10 +563,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -581,10 +581,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J4" t="n">
-        <v>16.66666666666667</v>
+        <v>-47.36842105263158</v>
       </c>
     </row>
     <row r="5">
@@ -594,16 +594,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>266</v>
+        <v>498</v>
       </c>
       <c r="D5" t="n">
-        <v>271</v>
+        <v>507</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>3</v>
@@ -615,10 +615,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>96</v>
+        <v>191</v>
       </c>
       <c r="J5" t="n">
-        <v>182.2916666666667</v>
+        <v>165.4450261780105</v>
       </c>
     </row>
     <row r="6">
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="D6" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="J6" t="n">
-        <v>-26.31578947368422</v>
+        <v>-20.83333333333334</v>
       </c>
     </row>
     <row r="7">
@@ -665,28 +665,28 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="D7" t="n">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="E7" t="n">
+        <v>12</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>5</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="J7" t="n">
-        <v>-32.92682926829268</v>
+        <v>-39.89637305699482</v>
       </c>
     </row>
     <row r="8">
@@ -699,19 +699,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>214</v>
+        <v>465</v>
       </c>
       <c r="D8" t="n">
-        <v>227</v>
+        <v>487</v>
       </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>35</v>
       </c>
       <c r="J8" t="n">
-        <v>548.5714285714286</v>
+        <v>1291.428571428572</v>
       </c>
     </row>
     <row r="9">
@@ -733,19 +733,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D9" t="n">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>77</v>
       </c>
       <c r="J9" t="n">
-        <v>-42.85714285714286</v>
+        <v>1.298701298701288</v>
       </c>
     </row>
     <row r="10">
@@ -764,31 +764,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>232</v>
+        <v>432</v>
       </c>
       <c r="D10" t="n">
-        <v>248</v>
+        <v>469</v>
       </c>
       <c r="E10" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>440</v>
+        <v>957</v>
       </c>
       <c r="J10" t="n">
-        <v>-43.63636363636364</v>
+        <v>-50.99268547544409</v>
       </c>
     </row>
     <row r="11">
@@ -801,28 +801,28 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>185</v>
+        <v>369</v>
       </c>
       <c r="D11" t="n">
-        <v>185</v>
+        <v>371</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>148</v>
+        <v>321</v>
       </c>
       <c r="J11" t="n">
-        <v>25</v>
+        <v>15.57632398753894</v>
       </c>
     </row>
     <row r="12">
@@ -832,31 +832,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C12" t="n">
-        <v>338</v>
+        <v>710</v>
       </c>
       <c r="D12" t="n">
-        <v>432</v>
+        <v>1007</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H12" t="n">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="I12" t="n">
-        <v>483.6</v>
+        <v>1137.5</v>
       </c>
       <c r="J12" t="n">
-        <v>-10.66997518610422</v>
+        <v>-11.47252747252747</v>
       </c>
     </row>
     <row r="13">
@@ -869,28 +869,28 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>355</v>
+        <v>816</v>
       </c>
       <c r="J13" t="n">
-        <v>-97.74647887323944</v>
+        <v>-97.05882352941177</v>
       </c>
     </row>
     <row r="14">
@@ -900,31 +900,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C14" t="n">
-        <v>320</v>
+        <v>672</v>
       </c>
       <c r="D14" t="n">
-        <v>362</v>
+        <v>815</v>
       </c>
       <c r="E14" t="n">
+        <v>57</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
         <v>4</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2</v>
-      </c>
       <c r="H14" t="n">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="I14" t="n">
-        <v>530</v>
+        <v>1148</v>
       </c>
       <c r="J14" t="n">
-        <v>-31.69811320754717</v>
+        <v>-29.00696864111498</v>
       </c>
     </row>
     <row r="15">
@@ -937,13 +937,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>124</v>
+        <v>251</v>
       </c>
       <c r="D15" t="n">
-        <v>125</v>
+        <v>256</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>159</v>
+        <v>371</v>
       </c>
       <c r="J15" t="n">
-        <v>-21.38364779874213</v>
+        <v>-30.99730458221024</v>
       </c>
     </row>
     <row r="16">
@@ -1005,28 +1005,28 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="D17" t="n">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>86</v>
+        <v>202</v>
       </c>
       <c r="J17" t="n">
-        <v>-40.69767441860465</v>
+        <v>-53.46534653465347</v>
       </c>
     </row>
     <row r="18">
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>33.33333333333333</v>
+        <v>-33.33333333333334</v>
       </c>
     </row>
     <row r="19">
@@ -1073,10 +1073,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1091,10 +1091,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J19" t="n">
-        <v>-33.33333333333334</v>
+        <v>-27.77777777777778</v>
       </c>
     </row>
     <row r="20">
@@ -1107,28 +1107,28 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D20" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E20" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>1</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="J20" t="n">
-        <v>-76.27118644067797</v>
+        <v>-71.94244604316546</v>
       </c>
     </row>
   </sheetData>

--- a/output/reporthouronfcst.xlsx
+++ b/output/reporthouronfcst.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>14/03/2023</t>
+          <t>18/03/2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -495,28 +495,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.322</v>
+        <v>238</v>
       </c>
       <c r="D2" t="n">
-        <v>1.327</v>
+        <v>238</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1281.8</v>
+        <v>338</v>
       </c>
       <c r="J2" t="n">
-        <v>-99.89647370884694</v>
+        <v>-29.58579881656804</v>
       </c>
     </row>
     <row r="3">
@@ -529,28 +529,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>404</v>
+        <v>119</v>
       </c>
       <c r="D3" t="n">
-        <v>406</v>
+        <v>119</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2</v>
       </c>
-      <c r="G3" t="n">
-        <v>12</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>523</v>
+        <v>185</v>
       </c>
       <c r="J3" t="n">
-        <v>-22.37093690248566</v>
+        <v>-35.67567567567568</v>
       </c>
     </row>
     <row r="4">
@@ -563,13 +563,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -581,10 +581,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>-47.36842105263158</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="5">
@@ -594,19 +594,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>498</v>
+        <v>74</v>
       </c>
       <c r="D5" t="n">
-        <v>507</v>
+        <v>96</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -615,10 +615,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>191</v>
+        <v>116</v>
       </c>
       <c r="J5" t="n">
-        <v>165.4450261780105</v>
+        <v>-17.24137931034483</v>
       </c>
     </row>
     <row r="6">
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="J6" t="n">
-        <v>-20.83333333333334</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="7">
@@ -662,31 +662,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c r="J7" t="n">
-        <v>-39.89637305699482</v>
+        <v>-65</v>
       </c>
     </row>
     <row r="8">
@@ -699,28 +699,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>465</v>
+        <v>72</v>
       </c>
       <c r="D8" t="n">
-        <v>487</v>
+        <v>73</v>
       </c>
       <c r="E8" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>21</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>35</v>
-      </c>
       <c r="J8" t="n">
-        <v>1291.428571428572</v>
+        <v>247.6190476190476</v>
       </c>
     </row>
     <row r="9">
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -751,10 +751,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="J9" t="n">
-        <v>1.298701298701288</v>
+        <v>-72.91666666666667</v>
       </c>
     </row>
     <row r="10">
@@ -764,31 +764,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>432</v>
+        <v>61</v>
       </c>
       <c r="D10" t="n">
-        <v>469</v>
+        <v>101</v>
       </c>
       <c r="E10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
         <v>3</v>
       </c>
-      <c r="G10" t="n">
-        <v>11</v>
-      </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>957</v>
+        <v>198</v>
       </c>
       <c r="J10" t="n">
-        <v>-50.99268547544409</v>
+        <v>-48.989898989899</v>
       </c>
     </row>
     <row r="11">
@@ -801,28 +801,28 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>369</v>
+        <v>91</v>
       </c>
       <c r="D11" t="n">
-        <v>371</v>
+        <v>92</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>1</v>
       </c>
-      <c r="G11" t="n">
-        <v>7</v>
-      </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>321</v>
+        <v>127</v>
       </c>
       <c r="J11" t="n">
-        <v>15.57632398753894</v>
+        <v>-27.55905511811023</v>
       </c>
     </row>
     <row r="12">
@@ -832,31 +832,31 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>131</v>
+      </c>
+      <c r="D12" t="n">
+        <v>183</v>
+      </c>
+      <c r="E12" t="n">
         <v>13</v>
       </c>
-      <c r="C12" t="n">
-        <v>710</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1007</v>
-      </c>
-      <c r="E12" t="n">
-        <v>56</v>
-      </c>
       <c r="F12" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>219</v>
+        <v>38</v>
       </c>
       <c r="I12" t="n">
-        <v>1137.5</v>
+        <v>256.1</v>
       </c>
       <c r="J12" t="n">
-        <v>-11.47252747252747</v>
+        <v>-28.54353768059352</v>
       </c>
     </row>
     <row r="13">
@@ -869,13 +869,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -887,10 +887,10 @@
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>816</v>
+        <v>263</v>
       </c>
       <c r="J13" t="n">
-        <v>-97.05882352941177</v>
+        <v>-97.33840304182509</v>
       </c>
     </row>
     <row r="14">
@@ -900,31 +900,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>672</v>
+        <v>143</v>
       </c>
       <c r="D14" t="n">
-        <v>815</v>
+        <v>178</v>
       </c>
       <c r="E14" t="n">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="I14" t="n">
-        <v>1148</v>
+        <v>344</v>
       </c>
       <c r="J14" t="n">
-        <v>-29.00696864111498</v>
+        <v>-48.25581395348837</v>
       </c>
     </row>
     <row r="15">
@@ -934,19 +934,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>251</v>
+        <v>59</v>
       </c>
       <c r="D15" t="n">
-        <v>256</v>
+        <v>63</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>371</v>
+        <v>102</v>
       </c>
       <c r="J15" t="n">
-        <v>-30.99730458221024</v>
+        <v>-38.23529411764706</v>
       </c>
     </row>
     <row r="16">
@@ -971,28 +971,28 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="D16" t="n">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E16" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="J16" t="n">
-        <v>5.645161290322576</v>
+        <v>-15.21739130434783</v>
       </c>
     </row>
     <row r="17">
@@ -1005,28 +1005,28 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="D17" t="n">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>202</v>
+        <v>57</v>
       </c>
       <c r="J17" t="n">
-        <v>-53.46534653465347</v>
+        <v>-70.17543859649122</v>
       </c>
     </row>
     <row r="18">
@@ -1039,10 +1039,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>-33.33333333333334</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="19">
@@ -1073,10 +1073,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1091,10 +1091,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
-        <v>-27.77777777777778</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="20">
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D20" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E20" t="n">
         <v>2</v>
@@ -1119,16 +1119,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="J20" t="n">
-        <v>-71.94244604316546</v>
+        <v>-22.72727272727273</v>
       </c>
     </row>
   </sheetData>

--- a/output/reporthouronfcst.xlsx
+++ b/output/reporthouronfcst.xlsx
@@ -495,28 +495,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>238</v>
+        <v>852</v>
       </c>
       <c r="D2" t="n">
-        <v>238</v>
+        <v>867</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>338</v>
+        <v>962</v>
       </c>
       <c r="J2" t="n">
-        <v>-29.58579881656804</v>
+        <v>-9.875259875259879</v>
       </c>
     </row>
     <row r="3">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>119</v>
+        <v>377</v>
       </c>
       <c r="D3" t="n">
-        <v>119</v>
+        <v>377</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -541,16 +541,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>185</v>
+        <v>520</v>
       </c>
       <c r="J3" t="n">
-        <v>-35.67567567567568</v>
+        <v>-27.5</v>
       </c>
     </row>
     <row r="4">
@@ -581,10 +581,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>-25</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="5">
@@ -594,19 +594,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>74</v>
+        <v>244</v>
       </c>
       <c r="D5" t="n">
-        <v>96</v>
+        <v>306</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -615,10 +615,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>116</v>
+        <v>252</v>
       </c>
       <c r="J5" t="n">
-        <v>-17.24137931034483</v>
+        <v>21.42857142857142</v>
       </c>
     </row>
     <row r="6">
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="J6" t="n">
-        <v>-25</v>
+        <v>-6.666666666666665</v>
       </c>
     </row>
     <row r="7">
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="D7" t="n">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="J7" t="n">
-        <v>-65</v>
+        <v>-39.6039603960396</v>
       </c>
     </row>
     <row r="8">
@@ -699,19 +699,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>72</v>
+        <v>213</v>
       </c>
       <c r="D8" t="n">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>21</v>
       </c>
       <c r="J8" t="n">
-        <v>247.6190476190476</v>
+        <v>919.047619047619</v>
       </c>
     </row>
     <row r="9">
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D9" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>48</v>
       </c>
       <c r="J9" t="n">
-        <v>-72.91666666666667</v>
+        <v>-22.91666666666666</v>
       </c>
     </row>
     <row r="10">
@@ -764,31 +764,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>61</v>
+        <v>246</v>
       </c>
       <c r="D10" t="n">
-        <v>101</v>
+        <v>325</v>
       </c>
       <c r="E10" t="n">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>198</v>
+        <v>537</v>
       </c>
       <c r="J10" t="n">
-        <v>-48.989898989899</v>
+        <v>-39.47858472998138</v>
       </c>
     </row>
     <row r="11">
@@ -801,28 +801,28 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>91</v>
+        <v>269</v>
       </c>
       <c r="D11" t="n">
-        <v>92</v>
+        <v>272</v>
       </c>
       <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
         <v>1</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>127</v>
+        <v>303</v>
       </c>
       <c r="J11" t="n">
-        <v>-27.55905511811023</v>
+        <v>-10.23102310231023</v>
       </c>
     </row>
     <row r="12">
@@ -835,28 +835,28 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>131</v>
+        <v>424</v>
       </c>
       <c r="D12" t="n">
-        <v>183</v>
+        <v>615</v>
       </c>
       <c r="E12" t="n">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H12" t="n">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="I12" t="n">
-        <v>256.1</v>
+        <v>760.5</v>
       </c>
       <c r="J12" t="n">
-        <v>-28.54353768059352</v>
+        <v>-19.13214990138067</v>
       </c>
     </row>
     <row r="13">
@@ -869,10 +869,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -887,10 +887,10 @@
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>263</v>
+        <v>733</v>
       </c>
       <c r="J13" t="n">
-        <v>-97.33840304182509</v>
+        <v>-96.31650750341065</v>
       </c>
     </row>
     <row r="14">
@@ -900,31 +900,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>143</v>
+        <v>529</v>
       </c>
       <c r="D14" t="n">
-        <v>178</v>
+        <v>627</v>
       </c>
       <c r="E14" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="I14" t="n">
-        <v>344</v>
+        <v>860</v>
       </c>
       <c r="J14" t="n">
-        <v>-48.25581395348837</v>
+        <v>-27.09302325581395</v>
       </c>
     </row>
     <row r="15">
@@ -937,28 +937,28 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>59</v>
+        <v>195</v>
       </c>
       <c r="D15" t="n">
-        <v>63</v>
+        <v>203</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>102</v>
+        <v>278</v>
       </c>
       <c r="J15" t="n">
-        <v>-38.23529411764706</v>
+        <v>-26.97841726618705</v>
       </c>
     </row>
     <row r="16">
@@ -1002,16 +1002,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="D17" t="n">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="J17" t="n">
-        <v>-70.17543859649122</v>
+        <v>-42.62295081967213</v>
       </c>
     </row>
     <row r="18">
@@ -1039,10 +1039,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>-100</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="19">
@@ -1073,13 +1073,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1091,10 +1091,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J19" t="n">
-        <v>-20</v>
+        <v>14.28571428571428</v>
       </c>
     </row>
     <row r="20">
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D20" t="n">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1125,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="J20" t="n">
-        <v>-22.72727272727273</v>
+        <v>-30.43478260869566</v>
       </c>
     </row>
   </sheetData>

--- a/output/reporthouronfcst.xlsx
+++ b/output/reporthouronfcst.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>18/03/2023</t>
+          <t>21/03/2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -492,31 +492,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>852</v>
+        <v>352</v>
       </c>
       <c r="D2" t="n">
-        <v>867</v>
+        <v>353</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>962</v>
+        <v>365.3</v>
       </c>
       <c r="J2" t="n">
-        <v>-9.875259875259879</v>
+        <v>-3.367095537914033</v>
       </c>
     </row>
     <row r="3">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>377</v>
+        <v>173</v>
       </c>
       <c r="D3" t="n">
-        <v>377</v>
+        <v>173</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -541,16 +541,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>520</v>
+        <v>176</v>
       </c>
       <c r="J3" t="n">
-        <v>-27.5</v>
+        <v>-1.704545454545459</v>
       </c>
     </row>
     <row r="4">
@@ -563,28 +563,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6</v>
-      </c>
       <c r="J4" t="n">
-        <v>-50</v>
+        <v>133.3333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -594,19 +594,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>244</v>
+        <v>131</v>
       </c>
       <c r="D5" t="n">
-        <v>306</v>
+        <v>154</v>
       </c>
       <c r="E5" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -615,10 +615,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>252</v>
+        <v>67</v>
       </c>
       <c r="J5" t="n">
-        <v>21.42857142857142</v>
+        <v>129.8507462686567</v>
       </c>
     </row>
     <row r="6">
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="J6" t="n">
-        <v>-6.666666666666665</v>
+        <v>-12.5</v>
       </c>
     </row>
     <row r="7">
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
@@ -677,16 +677,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="J7" t="n">
-        <v>-39.6039603960396</v>
+        <v>-30.61224489795918</v>
       </c>
     </row>
     <row r="8">
@@ -699,28 +699,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>213</v>
+        <v>143</v>
       </c>
       <c r="D8" t="n">
-        <v>214</v>
+        <v>154</v>
       </c>
       <c r="E8" t="n">
+        <v>9</v>
+      </c>
+      <c r="F8" t="n">
         <v>2</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J8" t="n">
-        <v>919.047619047619</v>
+        <v>305.2631578947368</v>
       </c>
     </row>
     <row r="9">
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D9" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -745,16 +745,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="J9" t="n">
-        <v>-22.91666666666666</v>
+        <v>-78.04878048780488</v>
       </c>
     </row>
     <row r="10">
@@ -764,31 +764,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>246</v>
+        <v>146</v>
       </c>
       <c r="D10" t="n">
-        <v>325</v>
+        <v>179</v>
       </c>
       <c r="E10" t="n">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>537</v>
+        <v>297</v>
       </c>
       <c r="J10" t="n">
-        <v>-39.47858472998138</v>
+        <v>-39.73063973063973</v>
       </c>
     </row>
     <row r="11">
@@ -801,13 +801,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>269</v>
+        <v>144</v>
       </c>
       <c r="D11" t="n">
-        <v>272</v>
+        <v>145</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>303</v>
+        <v>94</v>
       </c>
       <c r="J11" t="n">
-        <v>-10.23102310231023</v>
+        <v>54.25531914893617</v>
       </c>
     </row>
     <row r="12">
@@ -835,28 +835,28 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>424</v>
+        <v>231</v>
       </c>
       <c r="D12" t="n">
-        <v>615</v>
+        <v>257</v>
       </c>
       <c r="E12" t="n">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="I12" t="n">
-        <v>760.5</v>
+        <v>341.9</v>
       </c>
       <c r="J12" t="n">
-        <v>-19.13214990138067</v>
+        <v>-24.83182217022521</v>
       </c>
     </row>
     <row r="13">
@@ -869,10 +869,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -884,13 +884,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>733</v>
+        <v>265</v>
       </c>
       <c r="J13" t="n">
-        <v>-96.31650750341065</v>
+        <v>-95.47169811320755</v>
       </c>
     </row>
     <row r="14">
@@ -900,31 +900,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>529</v>
+        <v>246</v>
       </c>
       <c r="D14" t="n">
-        <v>627</v>
+        <v>259</v>
       </c>
       <c r="E14" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
+        <v>8</v>
+      </c>
+      <c r="H14" t="n">
         <v>10</v>
       </c>
-      <c r="H14" t="n">
-        <v>73</v>
-      </c>
       <c r="I14" t="n">
-        <v>860</v>
+        <v>410</v>
       </c>
       <c r="J14" t="n">
-        <v>-27.09302325581395</v>
+        <v>-36.82926829268293</v>
       </c>
     </row>
     <row r="15">
@@ -934,31 +934,31 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>93</v>
+      </c>
+      <c r="D15" t="n">
+        <v>94</v>
+      </c>
+      <c r="E15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="n">
-        <v>195</v>
-      </c>
-      <c r="D15" t="n">
-        <v>203</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5</v>
-      </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>278</v>
+        <v>107</v>
       </c>
       <c r="J15" t="n">
-        <v>-26.97841726618705</v>
+        <v>-12.14953271028038</v>
       </c>
     </row>
     <row r="16">
@@ -971,16 +971,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="D16" t="n">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="E16" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -989,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="J16" t="n">
-        <v>-15.21739130434783</v>
+        <v>-5.042016806722693</v>
       </c>
     </row>
     <row r="17">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="D17" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="J17" t="n">
-        <v>-42.62295081967213</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="18">
@@ -1073,28 +1073,28 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
         <v>1</v>
       </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J19" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
     </row>
     <row r="20">
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1125,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="J20" t="n">
-        <v>-30.43478260869566</v>
+        <v>-55.26315789473684</v>
       </c>
     </row>
   </sheetData>

--- a/output/reporthouronfcst.xlsx
+++ b/output/reporthouronfcst.xlsx
@@ -492,31 +492,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>821</v>
+      </c>
+      <c r="D2" t="n">
+        <v>822</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>352</v>
-      </c>
-      <c r="D2" t="n">
-        <v>353</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>365.3</v>
+        <v>763.0999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>-3.367095537914033</v>
+        <v>7.718516577119661</v>
       </c>
     </row>
     <row r="3">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>173</v>
+        <v>336</v>
       </c>
       <c r="D3" t="n">
-        <v>173</v>
+        <v>336</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -541,16 +541,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>176</v>
+        <v>315</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.704545454545459</v>
+        <v>6.666666666666665</v>
       </c>
     </row>
     <row r="4">
@@ -563,10 +563,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -581,10 +581,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J4" t="n">
-        <v>133.3333333333333</v>
+        <v>18.18181818181819</v>
       </c>
     </row>
     <row r="5">
@@ -594,16 +594,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>131</v>
+        <v>302</v>
       </c>
       <c r="D5" t="n">
-        <v>154</v>
+        <v>329</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F5" t="n">
         <v>7</v>
@@ -615,10 +615,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="J5" t="n">
-        <v>129.8507462686567</v>
+        <v>186.0869565217391</v>
       </c>
     </row>
     <row r="6">
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="D6" t="n">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="J6" t="n">
-        <v>-12.5</v>
+        <v>37.73584905660377</v>
       </c>
     </row>
     <row r="7">
@@ -662,19 +662,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D7" t="n">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>2</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="J7" t="n">
-        <v>-30.61224489795918</v>
+        <v>-24.21052631578947</v>
       </c>
     </row>
     <row r="8">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>143</v>
+        <v>300</v>
       </c>
       <c r="D8" t="n">
-        <v>154</v>
+        <v>322</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>38</v>
       </c>
       <c r="J8" t="n">
-        <v>305.2631578947368</v>
+        <v>747.3684210526314</v>
       </c>
     </row>
     <row r="9">
@@ -730,16 +730,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D9" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>82</v>
       </c>
       <c r="J9" t="n">
-        <v>-78.04878048780488</v>
+        <v>-64.63414634146342</v>
       </c>
     </row>
     <row r="10">
@@ -764,31 +764,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>146</v>
+        <v>325</v>
       </c>
       <c r="D10" t="n">
-        <v>179</v>
+        <v>378</v>
       </c>
       <c r="E10" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="F10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" t="n">
+        <v>9</v>
+      </c>
+      <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="G10" t="n">
-        <v>6</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>297</v>
+        <v>527</v>
       </c>
       <c r="J10" t="n">
-        <v>-39.73063973063973</v>
+        <v>-28.27324478178368</v>
       </c>
     </row>
     <row r="11">
@@ -801,28 +801,28 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>144</v>
+        <v>273</v>
       </c>
       <c r="D11" t="n">
-        <v>145</v>
+        <v>275</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>94</v>
+        <v>199</v>
       </c>
       <c r="J11" t="n">
-        <v>54.25531914893617</v>
+        <v>38.19095477386936</v>
       </c>
     </row>
     <row r="12">
@@ -832,31 +832,31 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>13</v>
+      </c>
+      <c r="C12" t="n">
+        <v>518</v>
+      </c>
+      <c r="D12" t="n">
+        <v>617</v>
+      </c>
+      <c r="E12" t="n">
+        <v>16</v>
+      </c>
+      <c r="F12" t="n">
         <v>2</v>
       </c>
-      <c r="C12" t="n">
-        <v>231</v>
-      </c>
-      <c r="D12" t="n">
-        <v>257</v>
-      </c>
-      <c r="E12" t="n">
-        <v>7</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H12" t="n">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="I12" t="n">
-        <v>341.9</v>
+        <v>738.4</v>
       </c>
       <c r="J12" t="n">
-        <v>-24.83182217022521</v>
+        <v>-16.4409534127844</v>
       </c>
     </row>
     <row r="13">
@@ -869,10 +869,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D13" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -887,10 +887,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>265</v>
+        <v>473</v>
       </c>
       <c r="J13" t="n">
-        <v>-95.47169811320755</v>
+        <v>-94.08033826638477</v>
       </c>
     </row>
     <row r="14">
@@ -903,28 +903,28 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>246</v>
+        <v>516</v>
       </c>
       <c r="D14" t="n">
-        <v>259</v>
+        <v>554</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="I14" t="n">
-        <v>410</v>
+        <v>727</v>
       </c>
       <c r="J14" t="n">
-        <v>-36.82926829268293</v>
+        <v>-23.79642365887208</v>
       </c>
     </row>
     <row r="15">
@@ -934,16 +934,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="D15" t="n">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>107</v>
+        <v>185</v>
       </c>
       <c r="J15" t="n">
-        <v>-12.14953271028038</v>
+        <v>-4.324324324324325</v>
       </c>
     </row>
     <row r="16">
@@ -1002,13 +1002,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="D17" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="J17" t="n">
-        <v>-24</v>
+        <v>-15.78947368421053</v>
       </c>
     </row>
     <row r="18">
@@ -1039,10 +1039,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>-50</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="19">
@@ -1073,10 +1073,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D19" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1085,16 +1085,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J19" t="n">
-        <v>33.33333333333333</v>
+        <v>90.90909090909092</v>
       </c>
     </row>
     <row r="20">
@@ -1104,13 +1104,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D20" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1125,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="J20" t="n">
-        <v>-55.26315789473684</v>
+        <v>-63.51351351351351</v>
       </c>
     </row>
   </sheetData>

--- a/output/reporthouronfcst.xlsx
+++ b/output/reporthouronfcst.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>21/03/2023</t>
+          <t>24/03/2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -492,31 +492,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>821</v>
+        <v>179</v>
       </c>
       <c r="D2" t="n">
-        <v>822</v>
+        <v>182</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>763.0999999999999</v>
+        <v>270.4</v>
       </c>
       <c r="J2" t="n">
-        <v>7.718516577119661</v>
+        <v>-32.69230769230769</v>
       </c>
     </row>
     <row r="3">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>336</v>
+        <v>108</v>
       </c>
       <c r="D3" t="n">
-        <v>336</v>
+        <v>108</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -541,16 +541,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>315</v>
+        <v>159</v>
       </c>
       <c r="J3" t="n">
-        <v>6.666666666666665</v>
+        <v>-32.07547169811321</v>
       </c>
     </row>
     <row r="4">
@@ -563,10 +563,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -581,10 +581,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>18.18181818181819</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="5">
@@ -594,19 +594,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>302</v>
+        <v>83</v>
       </c>
       <c r="D5" t="n">
-        <v>329</v>
+        <v>95</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -615,10 +615,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="J5" t="n">
-        <v>186.0869565217391</v>
+        <v>30.13698630136987</v>
       </c>
     </row>
     <row r="6">
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="J6" t="n">
-        <v>37.73584905660377</v>
+        <v>-55.17241379310344</v>
       </c>
     </row>
     <row r="7">
@@ -665,28 +665,28 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="J7" t="n">
-        <v>-24.21052631578947</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="8">
@@ -699,28 +699,28 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
+        <v>111</v>
+      </c>
+      <c r="D8" t="n">
+        <v>116</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>29</v>
+      </c>
+      <c r="J8" t="n">
         <v>300</v>
-      </c>
-      <c r="D8" t="n">
-        <v>322</v>
-      </c>
-      <c r="E8" t="n">
-        <v>19</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" t="n">
-        <v>3</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>38</v>
-      </c>
-      <c r="J8" t="n">
-        <v>747.3684210526314</v>
       </c>
     </row>
     <row r="9">
@@ -730,31 +730,31 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>14</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" t="n">
-        <v>27</v>
-      </c>
-      <c r="D9" t="n">
-        <v>29</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J9" t="n">
-        <v>-64.63414634146342</v>
+        <v>-80.28169014084507</v>
       </c>
     </row>
     <row r="10">
@@ -764,31 +764,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
-        <v>325</v>
+        <v>129</v>
       </c>
       <c r="D10" t="n">
-        <v>378</v>
+        <v>195</v>
       </c>
       <c r="E10" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F10" t="n">
         <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>527</v>
+        <v>293</v>
       </c>
       <c r="J10" t="n">
-        <v>-28.27324478178368</v>
+        <v>-33.44709897610921</v>
       </c>
     </row>
     <row r="11">
@@ -801,28 +801,28 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>273</v>
+        <v>68</v>
       </c>
       <c r="D11" t="n">
-        <v>275</v>
+        <v>68</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="J11" t="n">
-        <v>38.19095477386936</v>
+        <v>-66.66666666666667</v>
       </c>
     </row>
     <row r="12">
@@ -832,31 +832,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="n">
-        <v>518</v>
+        <v>134</v>
       </c>
       <c r="D12" t="n">
-        <v>617</v>
+        <v>190</v>
       </c>
       <c r="E12" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="I12" t="n">
-        <v>738.4</v>
+        <v>331.5</v>
       </c>
       <c r="J12" t="n">
-        <v>-16.4409534127844</v>
+        <v>-42.68476621417798</v>
       </c>
     </row>
     <row r="13">
@@ -869,10 +869,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D13" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -887,10 +887,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>473</v>
+        <v>233</v>
       </c>
       <c r="J13" t="n">
-        <v>-94.08033826638477</v>
+        <v>-90.12875536480686</v>
       </c>
     </row>
     <row r="14">
@@ -900,31 +900,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>516</v>
+        <v>213</v>
       </c>
       <c r="D14" t="n">
-        <v>554</v>
+        <v>243</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I14" t="n">
-        <v>727</v>
+        <v>354</v>
       </c>
       <c r="J14" t="n">
-        <v>-23.79642365887208</v>
+        <v>-31.35593220338983</v>
       </c>
     </row>
     <row r="15">
@@ -934,16 +934,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="D15" t="n">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>185</v>
+        <v>113</v>
       </c>
       <c r="J15" t="n">
-        <v>-4.324324324324325</v>
+        <v>-29.20353982300885</v>
       </c>
     </row>
     <row r="16">
@@ -971,28 +971,28 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D16" t="n">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E16" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="J16" t="n">
-        <v>-5.042016806722693</v>
+        <v>-17.88079470198676</v>
       </c>
     </row>
     <row r="17">
@@ -1002,13 +1002,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="D17" t="n">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1017,16 +1017,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="J17" t="n">
-        <v>-15.78947368421053</v>
+        <v>-61.70212765957447</v>
       </c>
     </row>
     <row r="18">
@@ -1039,10 +1039,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>-25</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="19">
@@ -1073,10 +1073,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1085,16 +1085,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J19" t="n">
-        <v>90.90909090909092</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="20">
@@ -1104,13 +1104,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1125,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="J20" t="n">
-        <v>-63.51351351351351</v>
+        <v>-64.28571428571428</v>
       </c>
     </row>
   </sheetData>

--- a/output/reporthouronfcst.xlsx
+++ b/output/reporthouronfcst.xlsx
@@ -495,28 +495,28 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>179</v>
+        <v>732</v>
       </c>
       <c r="D2" t="n">
-        <v>182</v>
+        <v>739</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>270.4</v>
+        <v>806</v>
       </c>
       <c r="J2" t="n">
-        <v>-32.69230769230769</v>
+        <v>-8.312655086848631</v>
       </c>
     </row>
     <row r="3">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>108</v>
+        <v>268</v>
       </c>
       <c r="D3" t="n">
-        <v>108</v>
+        <v>269</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -541,16 +541,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>159</v>
+        <v>338</v>
       </c>
       <c r="J3" t="n">
-        <v>-32.07547169811321</v>
+        <v>-20.41420118343196</v>
       </c>
     </row>
     <row r="4">
@@ -563,10 +563,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -581,10 +581,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>-50</v>
+        <v>57.14285714285714</v>
       </c>
     </row>
     <row r="5">
@@ -594,19 +594,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>83</v>
+        <v>240</v>
       </c>
       <c r="D5" t="n">
-        <v>95</v>
+        <v>256</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -615,10 +615,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="J5" t="n">
-        <v>30.13698630136987</v>
+        <v>77.77777777777777</v>
       </c>
     </row>
     <row r="6">
@@ -631,16 +631,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D6" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="J6" t="n">
-        <v>-55.17241379310344</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="7">
@@ -665,28 +665,28 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="D7" t="n">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="J7" t="n">
-        <v>-28</v>
+        <v>-1.818181818181819</v>
       </c>
     </row>
     <row r="8">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>303</v>
+      </c>
+      <c r="D8" t="n">
+        <v>311</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" t="n">
         <v>2</v>
       </c>
-      <c r="C8" t="n">
-        <v>111</v>
-      </c>
-      <c r="D8" t="n">
-        <v>116</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>29</v>
       </c>
       <c r="J8" t="n">
-        <v>300</v>
+        <v>972.4137931034483</v>
       </c>
     </row>
     <row r="9">
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D9" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -754,7 +754,7 @@
         <v>71</v>
       </c>
       <c r="J9" t="n">
-        <v>-80.28169014084507</v>
+        <v>-40.84507042253522</v>
       </c>
     </row>
     <row r="10">
@@ -764,31 +764,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>129</v>
+        <v>471</v>
       </c>
       <c r="D10" t="n">
-        <v>195</v>
+        <v>598</v>
       </c>
       <c r="E10" t="n">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>293</v>
+        <v>614</v>
       </c>
       <c r="J10" t="n">
-        <v>-33.44709897610921</v>
+        <v>-2.605863192182412</v>
       </c>
     </row>
     <row r="11">
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>68</v>
+        <v>251</v>
       </c>
       <c r="D11" t="n">
-        <v>68</v>
+        <v>251</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>204</v>
+        <v>309</v>
       </c>
       <c r="J11" t="n">
-        <v>-66.66666666666667</v>
+        <v>-18.77022653721683</v>
       </c>
     </row>
     <row r="12">
@@ -832,31 +832,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>134</v>
+        <v>435</v>
       </c>
       <c r="D12" t="n">
-        <v>190</v>
+        <v>679</v>
       </c>
       <c r="E12" t="n">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H12" t="n">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="I12" t="n">
-        <v>331.5</v>
+        <v>789.1</v>
       </c>
       <c r="J12" t="n">
-        <v>-42.68476621417798</v>
+        <v>-13.95260423267013</v>
       </c>
     </row>
     <row r="13">
@@ -869,13 +869,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D13" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -887,10 +887,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>233</v>
+        <v>483</v>
       </c>
       <c r="J13" t="n">
-        <v>-90.12875536480686</v>
+        <v>-92.54658385093167</v>
       </c>
     </row>
     <row r="14">
@@ -900,31 +900,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>213</v>
+        <v>624</v>
       </c>
       <c r="D14" t="n">
-        <v>243</v>
+        <v>761</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H14" t="n">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I14" t="n">
-        <v>354</v>
+        <v>719</v>
       </c>
       <c r="J14" t="n">
-        <v>-31.35593220338983</v>
+        <v>5.841446453407517</v>
       </c>
     </row>
     <row r="15">
@@ -937,28 +937,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="D15" t="n">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>113</v>
+        <v>225</v>
       </c>
       <c r="J15" t="n">
-        <v>-29.20353982300885</v>
+        <v>0.4444444444444473</v>
       </c>
     </row>
     <row r="16">
@@ -1005,16 +1005,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D17" t="n">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="J17" t="n">
-        <v>-61.70212765957447</v>
+        <v>-25.23364485981309</v>
       </c>
     </row>
     <row r="18">
@@ -1039,13 +1039,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>-100</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="19">
@@ -1073,10 +1073,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1091,10 +1091,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J19" t="n">
-        <v>-50</v>
+        <v>-23.07692307692307</v>
       </c>
     </row>
     <row r="20">
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1125,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="J20" t="n">
-        <v>-64.28571428571428</v>
+        <v>-55.73770491803278</v>
       </c>
     </row>
   </sheetData>

--- a/output/reporthouronfcst.xlsx
+++ b/output/reporthouronfcst.xlsx
@@ -492,31 +492,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>732</v>
+        <v>1.016</v>
       </c>
       <c r="D2" t="n">
-        <v>739</v>
+        <v>1.027</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>806</v>
+        <v>1358.5</v>
       </c>
       <c r="J2" t="n">
-        <v>-8.312655086848631</v>
+        <v>-99.9244019138756</v>
       </c>
     </row>
     <row r="3">
@@ -529,10 +529,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>268</v>
+        <v>373</v>
       </c>
       <c r="D3" t="n">
-        <v>269</v>
+        <v>374</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -541,16 +541,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>338</v>
+        <v>525</v>
       </c>
       <c r="J3" t="n">
-        <v>-20.41420118343196</v>
+        <v>-28.76190476190477</v>
       </c>
     </row>
     <row r="4">
@@ -563,10 +563,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -581,10 +581,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J4" t="n">
-        <v>57.14285714285714</v>
+        <v>66.66666666666667</v>
       </c>
     </row>
     <row r="5">
@@ -597,13 +597,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="D5" t="n">
-        <v>256</v>
+        <v>318</v>
       </c>
       <c r="E5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F5" t="n">
         <v>3</v>
@@ -615,10 +615,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="J5" t="n">
-        <v>77.77777777777777</v>
+        <v>62.24489795918367</v>
       </c>
     </row>
     <row r="6">
@@ -631,13 +631,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D6" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="J6" t="n">
-        <v>18.75</v>
+        <v>-2.597402597402598</v>
       </c>
     </row>
     <row r="7">
@@ -662,13 +662,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="D7" t="n">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
@@ -677,16 +677,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="J7" t="n">
-        <v>-1.818181818181819</v>
+        <v>-11.46496815286624</v>
       </c>
     </row>
     <row r="8">
@@ -699,19 +699,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>303</v>
+        <v>420</v>
       </c>
       <c r="D8" t="n">
-        <v>311</v>
+        <v>438</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>29</v>
       </c>
       <c r="J8" t="n">
-        <v>972.4137931034483</v>
+        <v>1410.344827586207</v>
       </c>
     </row>
     <row r="9">
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D9" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -754,7 +754,7 @@
         <v>71</v>
       </c>
       <c r="J9" t="n">
-        <v>-40.84507042253522</v>
+        <v>-22.53521126760564</v>
       </c>
     </row>
     <row r="10">
@@ -764,19 +764,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>471</v>
+        <v>634</v>
       </c>
       <c r="D10" t="n">
-        <v>598</v>
+        <v>783</v>
       </c>
       <c r="E10" t="n">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G10" t="n">
         <v>4</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>614</v>
+        <v>887</v>
       </c>
       <c r="J10" t="n">
-        <v>-2.605863192182412</v>
+        <v>-11.7249154453213</v>
       </c>
     </row>
     <row r="11">
@@ -801,28 +801,28 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>251</v>
+        <v>363</v>
       </c>
       <c r="D11" t="n">
-        <v>251</v>
+        <v>364</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>309</v>
+        <v>399</v>
       </c>
       <c r="J11" t="n">
-        <v>-18.77022653721683</v>
+        <v>-8.771929824561408</v>
       </c>
     </row>
     <row r="12">
@@ -832,31 +832,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>435</v>
+        <v>585</v>
       </c>
       <c r="D12" t="n">
-        <v>679</v>
+        <v>867</v>
       </c>
       <c r="E12" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
         <v>8</v>
       </c>
       <c r="H12" t="n">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="I12" t="n">
-        <v>789.1</v>
+        <v>1180.4</v>
       </c>
       <c r="J12" t="n">
-        <v>-13.95260423267013</v>
+        <v>-26.55032192477127</v>
       </c>
     </row>
     <row r="13">
@@ -869,10 +869,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D13" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
@@ -887,10 +887,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>483</v>
+        <v>726</v>
       </c>
       <c r="J13" t="n">
-        <v>-92.54658385093167</v>
+        <v>-93.66391184573003</v>
       </c>
     </row>
     <row r="14">
@@ -900,31 +900,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>624</v>
+        <v>843</v>
       </c>
       <c r="D14" t="n">
-        <v>761</v>
+        <v>997</v>
       </c>
       <c r="E14" t="n">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H14" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="I14" t="n">
-        <v>719</v>
+        <v>1048</v>
       </c>
       <c r="J14" t="n">
-        <v>5.841446453407517</v>
+        <v>-4.866412213740457</v>
       </c>
     </row>
     <row r="15">
@@ -934,13 +934,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>201</v>
+        <v>262</v>
       </c>
       <c r="D15" t="n">
-        <v>226</v>
+        <v>288</v>
       </c>
       <c r="E15" t="n">
         <v>24</v>
@@ -949,16 +949,16 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>225</v>
+        <v>339</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4444444444444473</v>
+        <v>-15.04424778761062</v>
       </c>
     </row>
     <row r="16">
@@ -1005,28 +1005,28 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="D17" t="n">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c r="J17" t="n">
-        <v>-25.23364485981309</v>
+        <v>-31.09756097560976</v>
       </c>
     </row>
     <row r="18">
@@ -1073,10 +1073,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1091,10 +1091,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J19" t="n">
-        <v>-23.07692307692307</v>
+        <v>-26.31578947368422</v>
       </c>
     </row>
     <row r="20">
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -1125,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="J20" t="n">
-        <v>-55.73770491803278</v>
+        <v>-67.02127659574468</v>
       </c>
     </row>
   </sheetData>

--- a/output/reporthouronfcst.xlsx
+++ b/output/reporthouronfcst.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24/03/2023</t>
+          <t>25/03/2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -495,28 +495,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.016</v>
+        <v>446</v>
       </c>
       <c r="D2" t="n">
-        <v>1.027</v>
+        <v>452</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1358.5</v>
+        <v>892</v>
       </c>
       <c r="J2" t="n">
-        <v>-99.9244019138756</v>
+        <v>-49.32735426008968</v>
       </c>
     </row>
     <row r="3">
@@ -526,31 +526,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>373</v>
+        <v>261</v>
       </c>
       <c r="D3" t="n">
-        <v>374</v>
+        <v>266</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>525</v>
+        <v>292</v>
       </c>
       <c r="J3" t="n">
-        <v>-28.76190476190477</v>
+        <v>-8.904109589041099</v>
       </c>
     </row>
     <row r="4">
@@ -563,10 +563,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -581,10 +581,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>66.66666666666667</v>
+        <v>28.57142857142858</v>
       </c>
     </row>
     <row r="5">
@@ -597,16 +597,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>300</v>
+        <v>166</v>
       </c>
       <c r="D5" t="n">
-        <v>318</v>
+        <v>181</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -615,10 +615,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="J5" t="n">
-        <v>62.24489795918367</v>
+        <v>6.470588235294117</v>
       </c>
     </row>
     <row r="6">
@@ -631,16 +631,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="J6" t="n">
-        <v>-2.597402597402598</v>
+        <v>-33.33333333333334</v>
       </c>
     </row>
     <row r="7">
@@ -662,31 +662,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>141</v>
+        <v>49</v>
       </c>
       <c r="D7" t="n">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>3</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>6</v>
-      </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>157</v>
+        <v>68</v>
       </c>
       <c r="J7" t="n">
-        <v>-11.46496815286624</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="8">
@@ -699,28 +699,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>420</v>
+        <v>159</v>
       </c>
       <c r="D8" t="n">
-        <v>438</v>
+        <v>160</v>
       </c>
       <c r="E8" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J8" t="n">
-        <v>1410.344827586207</v>
+        <v>742.1052631578947</v>
       </c>
     </row>
     <row r="9">
@@ -733,28 +733,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D9" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="J9" t="n">
-        <v>-22.53521126760564</v>
+        <v>-47.72727272727273</v>
       </c>
     </row>
     <row r="10">
@@ -764,31 +764,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>634</v>
+        <v>203</v>
       </c>
       <c r="D10" t="n">
-        <v>783</v>
+        <v>252</v>
       </c>
       <c r="E10" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>887</v>
+        <v>394</v>
       </c>
       <c r="J10" t="n">
-        <v>-11.7249154453213</v>
+        <v>-36.04060913705583</v>
       </c>
     </row>
     <row r="11">
@@ -801,28 +801,28 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>363</v>
+        <v>161</v>
       </c>
       <c r="D11" t="n">
-        <v>364</v>
+        <v>163</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>399</v>
+        <v>218</v>
       </c>
       <c r="J11" t="n">
-        <v>-8.771929824561408</v>
+        <v>-25.22935779816514</v>
       </c>
     </row>
     <row r="12">
@@ -832,31 +832,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>585</v>
+        <v>341</v>
       </c>
       <c r="D12" t="n">
-        <v>867</v>
+        <v>453</v>
       </c>
       <c r="E12" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F12" t="n">
         <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H12" t="n">
-        <v>180</v>
+        <v>84</v>
       </c>
       <c r="I12" t="n">
-        <v>1180.4</v>
+        <v>774</v>
       </c>
       <c r="J12" t="n">
-        <v>-26.55032192477127</v>
+        <v>-41.47286821705426</v>
       </c>
     </row>
     <row r="13">
@@ -869,28 +869,28 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D13" t="n">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>726</v>
+        <v>486</v>
       </c>
       <c r="J13" t="n">
-        <v>-93.66391184573003</v>
+        <v>-85.80246913580247</v>
       </c>
     </row>
     <row r="14">
@@ -903,28 +903,28 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>843</v>
+        <v>511</v>
       </c>
       <c r="D14" t="n">
-        <v>997</v>
+        <v>584</v>
       </c>
       <c r="E14" t="n">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="F14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H14" t="n">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="I14" t="n">
-        <v>1048</v>
+        <v>603</v>
       </c>
       <c r="J14" t="n">
-        <v>-4.866412213740457</v>
+        <v>-3.150912106135983</v>
       </c>
     </row>
     <row r="15">
@@ -934,19 +934,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>262</v>
+        <v>171</v>
       </c>
       <c r="D15" t="n">
-        <v>288</v>
+        <v>181</v>
       </c>
       <c r="E15" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>339</v>
+        <v>167</v>
       </c>
       <c r="J15" t="n">
-        <v>-15.04424778761062</v>
+        <v>8.383233532934131</v>
       </c>
     </row>
     <row r="16">
@@ -971,28 +971,28 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="D16" t="n">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="E16" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="J16" t="n">
-        <v>-17.88079470198676</v>
+        <v>-23.33333333333333</v>
       </c>
     </row>
     <row r="17">
@@ -1005,28 +1005,28 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="D17" t="n">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="E17" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c r="J17" t="n">
-        <v>-31.09756097560976</v>
+        <v>-49.31506849315068</v>
       </c>
     </row>
     <row r="18">
@@ -1036,31 +1036,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>3</v>
       </c>
-      <c r="E18" t="n">
-        <v>2</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>5</v>
-      </c>
       <c r="J18" t="n">
-        <v>-40</v>
+        <v>-66.66666666666667</v>
       </c>
     </row>
     <row r="19">
@@ -1073,10 +1073,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D19" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1085,16 +1085,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="J19" t="n">
-        <v>-26.31578947368422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1107,28 +1107,28 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="J20" t="n">
-        <v>-67.02127659574468</v>
+        <v>-34.88372093023256</v>
       </c>
     </row>
   </sheetData>

--- a/output/reporthouronfcst.xlsx
+++ b/output/reporthouronfcst.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>25/03/2023</t>
+          <t>07/04/2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -495,28 +495,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>446</v>
+        <v>1.123</v>
       </c>
       <c r="D2" t="n">
-        <v>452</v>
+        <v>1.128</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>892</v>
+        <v>1159</v>
       </c>
       <c r="J2" t="n">
-        <v>-49.32735426008968</v>
+        <v>-99.90267471958585</v>
       </c>
     </row>
     <row r="3">
@@ -529,28 +529,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>261</v>
+        <v>374</v>
       </c>
       <c r="D3" t="n">
-        <v>266</v>
+        <v>378</v>
       </c>
       <c r="E3" t="n">
         <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="J3" t="n">
-        <v>-8.904109589041099</v>
+        <v>10.85043988269794</v>
       </c>
     </row>
     <row r="4">
@@ -563,10 +563,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -575,16 +575,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J4" t="n">
-        <v>28.57142857142858</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -597,16 +597,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>166</v>
+        <v>243</v>
       </c>
       <c r="D5" t="n">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -615,10 +615,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>170</v>
+        <v>294</v>
       </c>
       <c r="J5" t="n">
-        <v>6.470588235294117</v>
+        <v>-13.94557823129252</v>
       </c>
     </row>
     <row r="6">
@@ -631,13 +631,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="D6" t="n">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="J6" t="n">
-        <v>-33.33333333333334</v>
+        <v>11.42857142857143</v>
       </c>
     </row>
     <row r="7">
@@ -662,31 +662,31 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>74</v>
+      </c>
+      <c r="D7" t="n">
+        <v>76</v>
+      </c>
+      <c r="E7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="n">
-        <v>49</v>
-      </c>
-      <c r="D7" t="n">
-        <v>51</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
         <v>2</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3</v>
-      </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="J7" t="n">
-        <v>-25</v>
+        <v>-31.53153153153153</v>
       </c>
     </row>
     <row r="8">
@@ -699,28 +699,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>159</v>
+        <v>242</v>
       </c>
       <c r="D8" t="n">
-        <v>160</v>
+        <v>249</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>19</v>
+        <v>407</v>
       </c>
       <c r="J8" t="n">
-        <v>742.1052631578947</v>
+        <v>-38.82063882063882</v>
       </c>
     </row>
     <row r="9">
@@ -733,28 +733,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D9" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J9" t="n">
-        <v>-47.72727272727273</v>
+        <v>-33.33333333333334</v>
       </c>
     </row>
     <row r="10">
@@ -764,31 +764,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="D10" t="n">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E10" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>394</v>
+        <v>815</v>
       </c>
       <c r="J10" t="n">
-        <v>-36.04060913705583</v>
+        <v>-68.46625766871166</v>
       </c>
     </row>
     <row r="11">
@@ -801,28 +801,28 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>161</v>
+        <v>274</v>
       </c>
       <c r="D11" t="n">
-        <v>163</v>
+        <v>276</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>218</v>
+        <v>376</v>
       </c>
       <c r="J11" t="n">
-        <v>-25.22935779816514</v>
+        <v>-26.59574468085106</v>
       </c>
     </row>
     <row r="12">
@@ -832,31 +832,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="D12" t="n">
-        <v>453</v>
+        <v>578</v>
       </c>
       <c r="E12" t="n">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H12" t="n">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="I12" t="n">
-        <v>774</v>
+        <v>980</v>
       </c>
       <c r="J12" t="n">
-        <v>-41.47286821705426</v>
+        <v>-41.02040816326531</v>
       </c>
     </row>
     <row r="13">
@@ -869,28 +869,28 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D13" t="n">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>486</v>
+        <v>564</v>
       </c>
       <c r="J13" t="n">
-        <v>-85.80246913580247</v>
+        <v>-95.0354609929078</v>
       </c>
     </row>
     <row r="14">
@@ -903,28 +903,28 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>511</v>
+        <v>540</v>
       </c>
       <c r="D14" t="n">
-        <v>584</v>
+        <v>658</v>
       </c>
       <c r="E14" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="I14" t="n">
-        <v>603</v>
+        <v>926</v>
       </c>
       <c r="J14" t="n">
-        <v>-3.150912106135983</v>
+        <v>-28.94168466522678</v>
       </c>
     </row>
     <row r="15">
@@ -937,81 +937,81 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="D15" t="n">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>167</v>
+        <v>274</v>
       </c>
       <c r="J15" t="n">
-        <v>8.383233532934131</v>
+        <v>-12.77372262773723</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="D16" t="n">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="E16" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="J16" t="n">
-        <v>-23.33333333333333</v>
+        <v>1.418439716312059</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1023,26 +1023,26 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>-49.31506849315068</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-WELCOME-CMN-RES</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1057,78 +1057,44 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J18" t="n">
-        <v>-66.66666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-WELCOME-RES</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>COV-WELCOME-RES</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>28</v>
-      </c>
-      <c r="D20" t="n">
-        <v>28</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>-34.88372093023256</v>
+        <v>-83.11688311688312</v>
       </c>
     </row>
   </sheetData>

--- a/output/reporthouronfcst.xlsx
+++ b/output/reporthouronfcst.xlsx
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.123</v>
+        <v>1.237</v>
       </c>
       <c r="D2" t="n">
-        <v>1.128</v>
+        <v>1.242</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -507,16 +507,16 @@
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1159</v>
+        <v>1315</v>
       </c>
       <c r="J2" t="n">
-        <v>-99.90267471958585</v>
+        <v>-99.90555133079849</v>
       </c>
     </row>
     <row r="3">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>374</v>
+        <v>407</v>
       </c>
       <c r="D3" t="n">
-        <v>378</v>
+        <v>411</v>
       </c>
       <c r="E3" t="n">
         <v>3</v>
@@ -547,10 +547,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="J3" t="n">
-        <v>10.85043988269794</v>
+        <v>8.157894736842097</v>
       </c>
     </row>
     <row r="4">
@@ -563,10 +563,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -581,10 +581,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>5.555555555555558</v>
       </c>
     </row>
     <row r="5">
@@ -597,10 +597,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="D5" t="n">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -615,10 +615,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="J5" t="n">
-        <v>-13.94557823129252</v>
+        <v>-14.86068111455109</v>
       </c>
     </row>
     <row r="6">
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D6" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="J6" t="n">
-        <v>11.42857142857143</v>
+        <v>-6.741573033707871</v>
       </c>
     </row>
     <row r="7">
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D7" t="n">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="J7" t="n">
-        <v>-31.53153153153153</v>
+        <v>-33.07086614173228</v>
       </c>
     </row>
     <row r="8">
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="D8" t="n">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -711,16 +711,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="J8" t="n">
-        <v>-38.82063882063882</v>
+        <v>-42.79379157427938</v>
       </c>
     </row>
     <row r="9">
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D9" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -751,10 +751,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J9" t="n">
-        <v>-33.33333333333334</v>
+        <v>-35.59322033898306</v>
       </c>
     </row>
     <row r="10">
@@ -767,13 +767,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="D10" t="n">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="E10" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>815</v>
+        <v>909</v>
       </c>
       <c r="J10" t="n">
-        <v>-68.46625766871166</v>
+        <v>-69.3069306930693</v>
       </c>
     </row>
     <row r="11">
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="D11" t="n">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -813,16 +813,16 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="J11" t="n">
-        <v>-26.59574468085106</v>
+        <v>-23.83292383292384</v>
       </c>
     </row>
     <row r="12">
@@ -832,13 +832,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>388</v>
+        <v>439</v>
       </c>
       <c r="D12" t="n">
-        <v>578</v>
+        <v>633</v>
       </c>
       <c r="E12" t="n">
         <v>72</v>
@@ -850,13 +850,13 @@
         <v>6</v>
       </c>
       <c r="H12" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I12" t="n">
-        <v>980</v>
+        <v>1117</v>
       </c>
       <c r="J12" t="n">
-        <v>-41.02040816326531</v>
+        <v>-43.3303491495076</v>
       </c>
     </row>
     <row r="13">
@@ -869,10 +869,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -887,10 +887,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>564</v>
+        <v>633</v>
       </c>
       <c r="J13" t="n">
-        <v>-95.0354609929078</v>
+        <v>-95.260663507109</v>
       </c>
     </row>
     <row r="14">
@@ -903,10 +903,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>540</v>
+        <v>596</v>
       </c>
       <c r="D14" t="n">
-        <v>658</v>
+        <v>716</v>
       </c>
       <c r="E14" t="n">
         <v>42</v>
@@ -915,16 +915,16 @@
         <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H14" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I14" t="n">
-        <v>926</v>
+        <v>1027</v>
       </c>
       <c r="J14" t="n">
-        <v>-28.94168466522678</v>
+        <v>-30.2823758519961</v>
       </c>
     </row>
     <row r="15">
@@ -937,10 +937,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="D15" t="n">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="E15" t="n">
         <v>30</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="J15" t="n">
-        <v>-12.77372262773723</v>
+        <v>-12.74509803921569</v>
       </c>
     </row>
     <row r="16">
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D16" t="n">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -983,16 +983,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="J16" t="n">
-        <v>1.418439716312059</v>
+        <v>-4.878048780487809</v>
       </c>
     </row>
     <row r="17">
@@ -1005,10 +1005,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
@@ -1026,7 +1026,7 @@
         <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -1039,10 +1039,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>-4.545454545454541</v>
       </c>
     </row>
     <row r="19">
@@ -1073,10 +1073,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J19" t="n">
-        <v>-83.11688311688312</v>
+        <v>-83.14606741573034</v>
       </c>
     </row>
   </sheetData>
